--- a/stat model.xlsx
+++ b/stat model.xlsx
@@ -47,10 +47,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000000_ "/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,9 +61,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -71,6 +71,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,11 +99,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,37 +115,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,13 +129,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -168,7 +146,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,7 +168,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +182,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -197,13 +204,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -214,6 +214,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -226,19 +238,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,43 +370,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,103 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,31 +427,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,6 +449,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -482,10 +484,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -510,148 +510,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -840,10 +840,10 @@
                   <c:v>1.33057779845452</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="General">
-                  <c:v>0.88851296750467</c:v>
+                  <c:v>0.267341490480053</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="General">
-                  <c:v>0.00130239517224184</c:v>
+                  <c:v>0.00131653380774359</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="General">
                   <c:v>0.0945461258039941</c:v>
@@ -1124,19 +1124,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.010364294052124</c:v>
+                  <c:v>0.202689409255981</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="#,##0.000000000">
-                  <c:v>7.25249648094177</c:v>
+                  <c:v>6.47242331504821</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.8630907535552</c:v>
+                  <c:v>12.9626290798187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.66467809677124</c:v>
+                  <c:v>4.33033919334411</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="#,##0.000000000">
-                  <c:v>188.579867362976</c:v>
+                  <c:v>198.941229104995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,15 +2394,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>346075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2410,7 +2410,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6308725" y="508000"/>
+        <a:off x="6565900" y="3289300"/>
         <a:ext cx="5819775" cy="3762375"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2424,15 +2424,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>270510</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>908685</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2440,8 +2440,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="270510" y="488950"/>
-        <a:ext cx="5505450" cy="3752850"/>
+        <a:off x="203835" y="3413125"/>
+        <a:ext cx="5895975" cy="3990340"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2714,8 +2714,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -2748,7 +2748,7 @@
         <v>1.33057779845452</v>
       </c>
       <c r="D3">
-        <v>0.010364294052124</v>
+        <v>0.202689409255981</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -2756,10 +2756,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.88851296750467</v>
+        <v>0.267341490480053</v>
       </c>
       <c r="D4" s="3">
-        <v>7.25249648094177</v>
+        <v>6.47242331504821</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2767,10 +2767,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.00130239517224184</v>
+        <v>0.00131653380774359</v>
       </c>
       <c r="D5">
-        <v>12.8630907535552</v>
+        <v>12.9626290798187</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -2781,7 +2781,7 @@
         <v>0.0945461258039941</v>
       </c>
       <c r="D6">
-        <v>4.66467809677124</v>
+        <v>4.33033919334411</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -2792,7 +2792,7 @@
         <v>0.119150189763213</v>
       </c>
       <c r="D7" s="3">
-        <v>188.579867362976</v>
+        <v>198.941229104995</v>
       </c>
     </row>
   </sheetData>
